--- a/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
@@ -487,9 +487,8 @@
 5. This will redirect you to your paper settings page.
 6. On the paper settings page, confirm the authorship request.
 7. The Hugging Face admin team will then validate your request.
-8. Once confirmed, the Paper page will show your authorship as verified.
-The context also notes that the Hub attempts to automatically match papers to users based on their email. So in some cases, papers may already be linked to your account. You can check your verified papers in your account settings under the Papers section.
-If your paper is not yet indexed on the Hub, you can add it by searching for it on the main Papers page or visiting hf.co/papers/[arxiv_id] with the paper's arXiv ID.</t>
+8. Once confirmed by the admin team, the Paper page will show your authorship as verified.
+The context also mentions that the Hub attempts to automatically match papers to users based on their email. So in some cases, papers may already be linked to your account. But if not, you can follow the above process to manually claim authorship.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -527,17 +526,16 @@
 from accelerate import Accelerator
 accelerator = Accelerator(mixed_precision='fp16')
 ```
-This will enable FP16 mixed precision training.
-For BF16 mixed precision, you would use:
+This will enable mixed precision training using 16-bit floating point (FP16).
+If you want to use bfloat16 instead, you can do:
 ```python 
 accelerator = Accelerator(mixed_precision='bf16')
 ```
-The `mixed_precision` parameter can take the following values:
+The options for `mixed_precision` are:
 - 'no': No mixed precision (default)
-- 'fp16': FP16 mixed precision  
-- 'bf16': BF16 mixed precision
-- 'fp8': FP8 mixed precision (experimental)
-So by explicitly specifying 'fp16' or 'bf16', you can force mixed precision training when initializing the Accelerator, rather than relying on automatic detection.</t>
+- 'fp16': 16-bit floating point mixed precision
+- 'bf16': bfloat16 mixed precision
+So by explicitly setting `mixed_precision='fp16'` or `mixed_precision='bf16'`, you can force mixed precision training when initializing the Accelerator, rather than relying on automatic detection.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -575,14 +573,14 @@
 2. Go to Window -&gt; Package Manager
 3. Click the "+" button and select "Add Package from git URL"
 4. Enter the following URL: https://github.com/huggingface/unity-api.git
-5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, go to Window -&gt; Hugging Face API Wizard to open it manually.
-6. In the API Wizard, enter your Hugging Face API key. You can create an API key in your Hugging Face account settings.
-7. Test the API key by clicking "Test API key" in the API Wizard.
-8. Optionally, you can change the model endpoints to use different models.
-9. Configure any advanced settings if desired. 
-10. To see usage examples, click "Install Examples" in the API Wizard.
-11. You can now close the API Wizard and start using the Hugging Face Unity API in your project.
-The key steps are adding the package from the git URL, entering your API key in the wizard, and optionally configuring settings and installing examples. This will set up the Hugging Face Unity API for use in your Unity project.</t>
+5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, go to Window -&gt; Hugging Face API Wizard
+6. In the API Wizard, enter your Hugging Face API key (which can be created in your Hugging Face account settings)
+7. Test the API key by clicking "Test API key" in the wizard
+8. Optionally, you can change the model endpoints to use different models
+9. Configure any advanced settings if desired
+10. To see usage examples, click "Install Examples" in the wizard
+11. You can then close the API Wizard
+After completing these steps, the Hugging Face Unity API will be installed and set up in your Unity project, allowing you to make calls to Hugging Face models from your Unity scripts.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -616,19 +614,23 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>To run a Gradio Blocks app in reload mode using a Python IDE, you can follow these steps:
-1. Save your Gradio app code in a Python file, for example `run.py`.
-2. Instead of running the file with `python run.py`, use the `gradio` command:
+1. Save your Gradio app code in a Python file (e.g. run.py)
+2. Instead of running the file with the regular Python command, use the "gradio" command:
    ```
    gradio run.py
    ```
-3. This will run the app in reload mode, where Gradio will watch for changes to the file and automatically reload the app when the file is modified.
+3. This will run the app in reload mode, where Gradio will watch for changes to the file and automatically reload the app when changes are detected.
 Key points:
-- Use the `gradio` command instead of `python` to run the file
-- Gradio will watch the directory where the file is located and reload if changes are detected
-- By default, Gradio looks for a Blocks/Interface demo called `demo` in your code
-- If your demo has a different name, you can specify it as the second argument, e.g. `gradio run.py my_demo`
-- You can pass command line arguments to your app as well, e.g. `gradio run.py --arg1 value1`
-This allows you to make changes to your Gradio app code and see the results immediately without having to manually stop and restart the app each time.</t>
+- Use the "gradio" command instead of "python" to run the file
+- Gradio will watch the directory containing the file for changes
+- The app will automatically reload when the file is modified
+- By default, Gradio looks for a Blocks/Interface demo called "demo" in your code
+- If your demo has a different name, you can specify it as the second argument:
+  ```
+  gradio run.py my_demo
+  ```
+- You can pass command line arguments to your app as well
+This reload mode allows you to make changes to your Gradio app code and see the updates immediately without having to manually stop and restart the app each time.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,7 +663,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>According to the context provided, Textual Inversion can teach new concepts to Stable Diffusion using just 3-5 images. The relevant quote is:
+          <t>According to the context, Textual Inversion can teach new concepts to Stable Diffusion using just 3-5 images. Specifically, the passage states:
 "By using just 3-5 images new concepts can be taught to Stable Diffusion and the model personalized on your own images"</t>
         </is>
       </c>
@@ -696,15 +698,9 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Based on the context provided, the "duorc" dataset has 6 splits. Specifically, the example JSON response shows:
-- 3 splits for the "ParaphraseRC" configuration:
-  - train
-  - validation 
-  - test
-- 3 splits for the "SelfRC" configuration:
-  - train
-  - validation
-  - test
-So in total, there are 6 splits across the two configurations of the "duorc" dataset.</t>
+- 3 splits for the "ParaphraseRC" configuration: train, validation, and test
+- 3 splits for the "SelfRC" configuration: train, validation, and test
+So in total, there are 6 splits across the two configurations of the duorc dataset.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -737,7 +733,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The `HfApi` class allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub.
+          <t>Based on the context provided, the Python class that allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub is the `HfApi` class.
 Specifically, the context mentions:
 "The `HfApi` class allows you to retrieve Discussions and Pull Requests on a given repo:"
 It then shows an example using the `get_repo_discussions` function:
@@ -746,7 +742,7 @@
 for discussion in get_repo_discussions(repo_id="bigscience/bloom"):
     print(f"{discussion.num} - {discussion.title}, pr: {discussion.is_pull_request}")
 ```
-So the `HfApi` class, and specifically its `get_repo_discussions` method, can be used to retrieve Discussions and Pull Requests from a Hugging Face Hub repository.</t>
+So the `HfApi` class, and specifically its `get_repo_discussions` method, is used to retrieve Discussions and Pull Requests from Hugging Face Hub repositories.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -781,7 +777,7 @@
         <is>
           <t>Based on the context provided, the TensorFlow API function used to load a saved tensor file is:
 safetensors.tensorflow.load_file
-This function is part of the safetensors library's TensorFlow API for loading tensors that were previously saved to a file.</t>
+This function is part of the safetensors library's TensorFlow API and is used to load tensors that were previously saved to a file.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -888,7 +884,7 @@
 1. Load a dataset from the Hugging Face Hub.
 2. Preprocess the data with `Dataset.map()`.
 3. Load and compute metrics.
-The context states that in Chapter 3, users "got your first taste of the 🤗 Datasets library and saw that there were three main steps when it came to fine-tuning a model" and then lists these three steps specifically.</t>
+The context states that these three steps were covered in Chapter 3 as an introduction to using the 🤗 Datasets library for fine-tuning models.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -921,12 +917,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the two parameter-reduction techniques proposed in the ALBERT model to lower memory consumption and increase training speed are:
+          <t>Based on the context provided, the two parameter-reduction techniques proposed in the ALBERT model are:
 1. Splitting the embedding matrix into two smaller matrices.
 2. Using repeating layers split among groups.
-The context states: "It presents two parameter-reduction techniques to lower memory consumption and increase the training speed of BERT:
-- Splitting the embedding matrix into two smaller matrices.
-- Using repeating layers split among groups."</t>
+The context states that ALBERT presents "two parameter-reduction techniques to lower memory consumption and increase the training speed of BERT" and then lists these two specific techniques.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -960,10 +954,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Based on the context provided, Gradio can be used for the following:
-1. Create a demo for your machine learning model. The context states "With a few lines of python code you can generate a demo for your ML model using our library of pre-built components."
-2. Share your machine learning model with others. The context mentions "Using the &lt;code&gt;share=True&lt;/code&gt; parameter in the launch method, you can generate a share link to send to anyone."
-3. Debug your model. The context notes "One advantage of a gradio demo is being able to test your model with real data which you can change and observe the model's predictions change in real time, helping you debug your model."
-Gradio cannot be used to train your model, as the context specifies "Gradio is designed to be used for model inference, AFTER your model is trained."</t>
+1. Create a demo for your machine learning model
+- The context states "With a few lines of python code you can generate a demo for your ML model using our library of pre-built components."
+2. Share your machine learning model with others
+- The context mentions "Using the &lt;code&gt;share=True&lt;/code&gt; parameter in the launch method, you can generate a share link to send to anyone."
+3. Debug your model 
+- The context notes "One advantage of a gradio demo is being able to test your model with real data which you can change and observe the model's predictions change in real time, helping you debug your model."
+So Gradio can be used to create demos, share models, and help debug models. The context explicitly states these are valid uses for Gradio.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1195,8 +1192,8 @@
 The key details are:
 - Use pip to install
 - Include the --upgrade-strategy eager option to ensure the latest version is installed
-- The package name is optimum["openvino"]
-This command will install the Optimum library with OpenVINO support, ensuring you have the latest version to use OpenVINO-compatible Stable Diffusion pipelines on Intel processors.</t>
+- The package name is optimum["openvino"] to get Optimum with OpenVINO support
+This command will install the latest version of Optimum Intel with OpenVINO integration.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1239,10 +1236,10 @@
 ```
 This command uses the `spacy-huggingface-hub` library to extend spaCy's CLI with a new `huggingface-hub push` command. It allows you to easily upload your packaged spaCy pipeline to the Hugging Face Hub.
 Before running this command, you need to:
-1. Log in to Hugging Face: `huggingface-cli login`
-2. Package your spaCy pipeline: `python -m spacy package ./en_ner_fashion ./output --build wheel`
+1. Login to Hugging Face using `huggingface-cli login`
+2. Package your spaCy pipeline using `python -m spacy package`
 3. Navigate to the directory containing the packaged wheel file
-Then you can run the push command to upload your pipeline to the Hub.</t>
+Then you can use the `huggingface-hub push` command to upload your pipeline to the Hub.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1280,10 +1277,10 @@
 ./run.sh --stage 15 --skip_upload_hf false --hf_repo username/model_repo
 ```
 This command uses the `run.sh` script with the following options:
-- `--stage 15`: Specifies the stage for uploading to Hugging Face
+- `--stage 15`: Specifies the stage for uploading
 - `--skip_upload_hf false`: Enables uploading to Hugging Face (does not skip it)
 - `--hf_repo username/model_repo`: Specifies the Hugging Face repository to upload to, where you would replace "username" with your Hugging Face username and "model_repo" with your desired repository name
-This allows you to easily upload your ESPnet model to a Hugging Face repository for sharing and collaboration.</t>
+This allows you to easily upload an ESPnet model to a Hugging Face repository directly from the ESPnet training pipeline.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1318,7 +1315,7 @@
         <is>
           <t>Based on the context provided, the default checkpoint used by the sentiment analysis pipeline in the Transformers library is:
 distilbert-base-uncased-finetuned-sst-2-english
-The relevant excerpt from the context is:
+Specifically, the context states:
 "Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert-base-uncased-finetuned-sst-2-english."</t>
         </is>
       </c>
@@ -1352,9 +1349,8 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>According to the context provided, the default context window size for Local Attention in the LongT5 model is 127 tokens to the left and right. Specifically, the context states:
-"For *Local Attention*, the sparse sliding-window local attention operation allows a given token to attend only `r` tokens to the left and right of it (with `r=127` by default)."
-So the default local attention window size is 127 tokens on each side of a given token.</t>
+          <t>According to the context provided, the default context window size (referred to as "r") for Local Attention in the LongT5 model is 127 tokens. Specifically, the context states:
+"For *Local Attention*, the sparse sliding-window local attention operation allows a given token to attend only `r` tokens to the left and right of it (with `r=127` by default)."</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1387,7 +1383,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>According to the context provided, the default repository type created by the `create_repo` function on Hugging Face Hub is a model repository.
+          <t>Based on the context provided, the default repository type created by the `create_repo` function on Hugging Face Hub is a model repository.
 Specifically, the documentation states:
 "By default, [`create_repo`] creates a model repository. But you can use the `repo_type` parameter to specify another repository type."
 So unless otherwise specified using the `repo_type` parameter, `create_repo` will create a model repository by default.</t>
@@ -1426,7 +1422,7 @@
           <t>Based on the context provided, the default setting for the `allow_flagging` parameter in Gradio's `Interface` is "manual".
 Specifically, the context states:
 "In `gradio.Interface` there are [four parameters](https://gradio.app/docs/#interface-header) that control how flagging works. We'll go through them in detail.
-- `allow_flagging`: This parameter can be set to `"manual"` (the default), `"auto"`, or `"never"`."
+- `allow_flagging`: This parameter can be set to `"manual"` (the default), `"auto"` or `"never"`."
 So the default value for `allow_flagging` is "manual", which means users will see a flagging button and samples will only be flagged when the button is clicked.</t>
         </is>
       </c>
@@ -1497,14 +1493,9 @@
           <t>Based on the context provided, the file size limit for syncing to Hugging Face Spaces without using Git-LFS is 10MB.
 Specifically, the context states:
 "Remember that for files larger than 10MB, Spaces requires Git-LFS. If you don't want to use Git-LFS, you may need to review your files and check your history."
-It also shows an example GitHub Action that checks file sizes with a 10MB limit:
-```yaml
-- name: Check large files
-  uses: ActionsDesk/lfs-warning@v2.0
-  with:
-    filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces
-```
-So the file size limit for syncing to Hugging Face Spaces without Git-LFS is 10MB.</t>
+It also provides an example GitHub Action to check file sizes, with the comment:
+"filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces"
+So the file size limit for syncing to HF Spaces without Git-LFS is 10MB.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1537,14 +1528,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Based on the context provided, the goal of Named Entity Recognition (NER) in token classification is to find entities in a piece of text, such as:
+          <t>Based on the context provided, the goal of Named Entity Recognition (NER) in token classification is to find and label entities in a piece of text, such as:
 - Person
 - Location 
 - Organization
-The task involves labeling each token in a sentence with one class for each entity type, and another class for tokens that do not belong to any entity.
+The task involves labeling each token in a sentence with one class for each entity type, and another class for tokens that do not belong to any entity. 
 Specifically, the context states:
 "The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity."
-So in summary, NER aims to identify and classify named entities (like people, places, organizations) within text by labeling individual tokens.</t>
+So in summary, NER aims to identify and categorize key entities mentioned in text by assigning appropriate entity labels to individual tokens or words.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1578,8 +1569,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t>According to the context provided, the latest task added to Hugging Face AutoTrain for Computer Vision is Image Classification. Specifically, the article states:
-"Image Classification is the latest task we've added, with more on the way."
-The article goes on to explain that Image Classification models can be used to categorize and label images for various purposes like recognizing signatures, distinguishing bird species, or identifying plant diseases.</t>
+"We've been expanding the number of tasks that we support, and we're proud to announce that you can now use AutoTrain for Computer Vision! Image Classification is the latest task we've added, with more on the way."</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1612,14 +1602,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Based on the results presented in the blog post, the maximum improvement in throughput achieved by Hugging Face Infinity compared to vanilla transformers was +506%.
-Specifically, the throughput comparison table shows:
+          <t>Based on the throughput comparison table provided in the context, the maximum improvement in throughput achieved by Hugging Face Infinity compared to vanilla transformers was:
+506% improvement for sequence length 8
+Specifically, the table shows:
 For sequence length 8:
-- Infinity: 248 req/sec 
-- Transformers: 49 req/sec
-- Improvement: +506%
-This was the largest percentage improvement across all sequence lengths tested. The improvements ranged from +300% to +506% depending on the sequence length.
-So in summary, the maximum throughput improvement achieved was 506% (or about 5x) for the shortest sequence length of 8 tokens.</t>
+Infinity: 248 req/sec
+Transformers: 49 req/sec
+Improvement: +506%
+This 506% improvement for the shortest sequence length of 8 tokens was the largest percentage improvement across all sequence lengths tested.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1689,7 +1679,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. Specifically, the context states:
+          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. Specifically, the passage states:
 "At the time of writing, the most popular one is `google/vit-base-patch16-224`, which has been trained on ImageNet images at a resolution of 224x224 pixels. We will use this model for our demo."</t>
         </is>
       </c>
@@ -1723,9 +1713,10 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Based on the context provided, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS.
+          <t>According to the context, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS.
 Specifically, the context states:
-"IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind. The model accepts arbitrary sequences of image and text inputs and generates coherent text as output. It can answer questions about images, describe visual content, create stories grounded in multiple images, and so on."</t>
+"In this guide, we will illustrate how you can solve image-text tasks with a large multimodal model called IDEFICS.
+IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind."</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1832,11 +1823,7 @@
         <is>
           <t>According to the context provided, the pretraining objective of the Wav2Vec2 context network is a contrastive task. Specifically:
 The model has to predict the true quantized speech representation of the masked prediction from a set of false ones, encouraging the model to find the most similar context vector and quantized speech unit (the target label).
-So the contrastive task involves:
-1. Predicting the correct quantized speech representation for masked inputs
-2. Distinguishing this correct representation from a set of incorrect/false options
-3. Encouraging the model to find the most similar context vector and quantized speech unit
-This contrastive objective helps the model learn useful representations of speech by contrasting correct and incorrect options during pretraining.</t>
+So the context network is trained on a contrastive task where it needs to distinguish the correct quantized speech representation from incorrect ones for masked portions of the input.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1869,12 +1856,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main purpose of the Diffusers library is to:
-1. Provide state-of-the-art pretrained diffusion models across multiple modalities.
-2. Serve as a modular toolbox for both inference and training of diffusion models.
-The philosophy section states:
-"🧨 Diffusers provides **state-of-the-art** pretrained diffusion models across multiple modalities. Its purpose is to serve as a **modular toolbox** for both inference and training."
-So the key purposes are to offer high-quality pretrained diffusion models and provide a flexible, modular framework for using and developing diffusion models.</t>
+          <t>Based on the context provided, the main purposes of the Diffusers library are:
+1. To provide state-of-the-art pretrained diffusion models across multiple modalities.
+2. To serve as a modular toolbox for both inference and training of diffusion models.
+3. To be a natural extension of PyTorch, following many of PyTorch's design principles.
+4. To offer a lightweight package with simple, self-explanatory code that is easy to use and customize.
+5. To be contributor-friendly, allowing for easy tweaking and modification of code.
+The library aims to balance usability, simplicity, and flexibility while providing powerful diffusion model capabilities. It is designed to be accessible to researchers and practitioners working with diffusion models across different applications.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1909,12 +1897,12 @@
         <is>
           <t>Based on the context provided, the key purposes of Fully Sharded Data Parallel (FSDP) in distributed training are:
 1. To enable distributed training of very large pretrained models up to 1 trillion parameters.
-2. To improve memory efficiency by sharding (splitting) the model parameters, gradients, and optimizer states across data parallel processes.
-3. To allow offloading of sharded model parameters to CPU to further reduce GPU memory usage.
-4. To enable scaling training to larger batch sizes or model sizes that would not fit in memory on a single GPU.
-Specifically, the context notes that FSDP:
-"achieves this by sharding the model parameters, gradients, and optimizer states across data parallel processes and it can also offload sharded model parameters to a CPU. The memory efficiency afforded by FSDP allows you to scale training to larger batch or model sizes."
-So in summary, FSDP is a technique to distribute very large models across multiple GPUs/processes in a memory-efficient way, enabling training of models that would be too large to fit on a single GPU. The sharding and optional CPU offloading are key aspects that allow this memory efficiency.</t>
+2. To improve memory efficiency by sharding (splitting up) the model parameters, gradients, and optimizer states across data parallel processes.
+3. To allow offloading of sharded model parameters to CPU memory.
+4. To enable scaling training to larger batch sizes or model sizes that would not fit on a single GPU.
+Specifically, the context states:
+"Fully sharded data parallel (FSDP) is developed for distributed training of large pretrained models up to 1T parameters. FSDP achieves this by sharding the model parameters, gradients, and optimizer states across data parallel processes and it can also offload sharded model parameters to a CPU. The memory efficiency afforded by FSDP allows you to scale training to larger batch or model sizes."
+So in summary, FSDP is a technique to distribute very large models across multiple GPUs/processes in a memory-efficient way, enabling training of models that would be too large to fit on a single GPU.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1950,9 +1938,9 @@
           <t>Based on the context provided, the purpose of Textual Inversion is:
 1. To personalize text-to-image models like Stable Diffusion on your own images.
 2. To teach new concepts to Stable Diffusion using just 3-5 images.
-3. To generate small (a few KBs) embeddings that can be loaded into the text encoder to activate the new learned concepts.
-4. To allow customization of the model's outputs based on a small set of example images.
-The key points are that Textual Inversion allows personalizing and customizing text-to-image models with very few example images, resulting in compact embeddings that can be easily loaded to activate the new concepts during inference.</t>
+3. To produce a very small file (a few KBs) containing new text embeddings that can be loaded into the text encoder.
+4. To allow users to fine-tune and customize text-to-image models on specific concepts or styles using only a few example images.
+The key points are that Textual Inversion allows personalizing and customizing text-to-image models in a data-efficient way (using only a few images) to learn new concepts, which can then be easily applied by loading the learned embeddings. This enables users to tailor the model's output to their specific needs or styles without having to retrain the entire large model.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1985,13 +1973,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Based on the context provided, Weights and Biases (W&amp;B) serves the following purposes for data scientists and machine learning scientists:
-1. It allows them to track their machine learning experiments at every stage, from training to production.
-2. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard.
-3. It provides a way to monitor and visualize the progress and results of machine learning experiments.
-4. W&amp;B enables tracking of various metrics, parameters, and outputs throughout the machine learning workflow.
-5. It helps data scientists and ML researchers organize, compare, and analyze their experimental results.
-In essence, W&amp;B is a tool for experiment tracking, visualization, and management in machine learning projects. It aims to help researchers and practitioners better understand and improve their models by providing comprehensive monitoring and reporting capabilities.</t>
+          <t>Based on the context provided, Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to:
+1. Track their machine learning experiments at every stage, from training to production.
+2. Aggregate any metric over samples and show them in panels in a customizable and searchable dashboard.
+Specifically, the context states:
+"Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to track their machine learning experiments at every stage, from training to production. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard"
+So the key purposes are experiment tracking and metric visualization/aggregation throughout the machine learning lifecycle.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2024,11 +2011,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Based on the context provided, the /healthcheck endpoint in the Datasets server API is used to:
+          <t>Based on the context provided, the purpose of the /healthcheck endpoint in the Datasets server API is to:
 Ensure the app is running
-Specifically, the context mentions:
+Specifically, the context states:
 "- /healthcheck: Ensure the app is running"
-This indicates that the /healthcheck endpoint is used as a simple way to check if the Datasets server API service is up and operational. Typically, healthcheck endpoints return a basic response to confirm the service is accessible and functioning, without performing any complex operations.</t>
+This suggests that the /healthcheck endpoint is used to check if the Datasets server API service is up and operational. It likely provides a simple way to verify the basic health and availability of the API.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2061,7 +2048,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Based on the context provided, the key purposes of the BLIP-Diffusion model are:
+          <t>Based on the context provided, the main purposes of the BLIP-Diffusion model are:
 1. To enable zero-shot subject-driven generation and control-guided zero-shot generation for text-to-image tasks.
 2. To overcome limitations of existing subject-driven text-to-image models, specifically:
    - Lengthy fine-tuning requirements
@@ -2104,7 +2091,7 @@
         <is>
           <t>Based on the context provided, the Safety Checker in the Diffusers library serves the following purpose:
 It checks and compares the class probability of a set of hard-coded harmful concepts in the embedding space against an image after it has been generated. The harmful concepts are intentionally hidden to prevent reverse engineering of the checker.
-In other words, the Safety Checker aims to detect potentially harmful or inappropriate content in generated images by comparing them against known harmful concepts, without revealing the specific concepts it is checking for. This helps ensure safer deployment of diffusion models by filtering out potentially problematic outputs.</t>
+Specifically, the Safety Checker aims to detect potentially harmful or inappropriate content in generated images as a safety measure. It does this by analyzing the generated image and comparing it against predefined harmful concepts, without exposing the exact details of those concepts to maintain the integrity of the safety system.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2137,18 +2124,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the `gradio.Blocks` API in Gradio is to:
+          <t>Based on the context provided, the purpose of the `gradio.Blocks` API is to:
 1. Provide a low-level API that allows full control over the data flows and layout of a Gradio application.
-2. Enable building more complex, multi-step applications compared to the simpler `Interface` class.
-3. Allow users to:
-   - Group related demos as multiple tabs in one web application
-   - Customize the layout of the demo, e.g. specify where inputs and outputs are located
-   - Create multi-step interfaces where the output of one model becomes the input to another
-   - Have more flexible data flows in general
-   - Change component properties or visibility based on user input
-4. Give developers granular control over how components are rendered and interact, by allowing them to instantiate individual components and define custom layouts and event handlers.
-5. Provide a way to build web applications that combine markdown, HTML, buttons, and interactive components simply by instantiating objects in Python code.
-In summary, `Blocks` is a more flexible and powerful API compared to `Interface`, giving developers low-level control to create more complex and customized Gradio applications. It trades some of the simplicity of `Interface` for much greater flexibility in application design and functionality.</t>
+2. Enable building very complex, multi-step applications (as in "building blocks").
+3. Allow more flexibility compared to the higher-level `Interface` API.
+Specifically, the `Blocks` API allows you to:
+- Group related demos as multiple tabs in one web application
+- Customize the layout of the demo, e.g. specify where inputs and outputs are located  
+- Create multi-step interfaces where the output of one model becomes the input to another
+- Have more flexible data flows in general
+- Change component properties or visibility based on user input
+So in summary, `Blocks` provides lower-level control and greater flexibility for building more complex and customized Gradio demos compared to the simpler `Interface` API. It's described as the "building blocks" for creating advanced Gradio applications.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2181,15 +2167,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Based on the context provided, I don't have specific information about a notebook titled "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi". The context does not mention this particular notebook or Habana Gaudi processors.
-The context focuses on topics like:
+          <t>Based on the context provided, I don't have specific information about a notebook titled "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi". The context does not mention this particular notebook or discuss training on Habana Gaudi processors.
+The context mainly covers topics related to:
 1. Using PyTorch's multi_tensor optimization
 2. Data preloading techniques to improve GPU utilization
-3. DeepSpeed ZeRO for large model training
-4. Using torch.compile in PyTorch 2.0
-5. Fully Sharded Data Parallel (FSDP) training
-6. Using the Accelerate library for distributed training
-Without more specific information about the notebook you're asking about, I can't provide details on its purpose. If you have additional context about this notebook, I'd be happy to try to answer based on that information.</t>
+3. Using DeepSpeed ZeRO for large model training
+4. Leveraging torch.compile in PyTorch 2.0
+5. Using Fully Sharded Data Parallel (FSDP) for distributed training of large models
+Without more specific information about the notebook you're asking about, I can't provide details on its purpose. If you have additional context about this notebook, please share it and I'd be happy to try to answer based on that information.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2227,10 +2212,10 @@
 2. A decoder that generates an image conditioned on the image embedding
 The purpose of this two-stage approach is to:
 1. Leverage the robust representations learned by contrastive models like CLIP, which capture both semantics and style of images.
-2. Improve image diversity while minimally impacting photorealism and caption similarity, by explicitly generating image representations first.
-3. Enable variations of an image that preserve its semantics and style, while varying non-essential details not captured in the image representation.
-4. Allow for language-guided image manipulations in a zero-shot fashion, by utilizing the joint embedding space of CLIP.
-So in summary, the two-stage model aims to leverage CLIP's powerful representations to enable more controllable and diverse image generation, while maintaining quality and enabling zero-shot editing capabilities.</t>
+2. Improve image diversity with minimal loss in photorealism and caption similarity by explicitly generating image representations first.
+3. Enable the decoder to produce variations of an image that preserve its semantics and style, while varying non-essential details not captured in the image representation.
+4. Allow for language-guided image manipulations in a zero-shot fashion, enabled by the joint embedding space of CLIP.
+So in summary, the two-stage model aims to improve image generation quality and controllability by first generating CLIP image embeddings and then decoding those into images, rather than generating images directly from text.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2265,12 +2250,12 @@
         <is>
           <t>Based on the context provided, the purpose of the 🧨 Diffusers tutorials is to:
 1. Provide a gentle introduction to diffusion models and generative AI for beginners.
-2. Help users understand the fundamentals of the library, including its core components and how it's meant to be used.
+2. Help users understand the library fundamentals, including core components and how Diffusers is meant to be used.
 3. Teach users how to use a pipeline for inference to generate content quickly.
 4. Show how to deconstruct a pipeline to understand how to use the library as a modular toolbox for building diffusion systems.
 5. Prepare users to learn how to train their own diffusion models in subsequent lessons.
 6. Give users the necessary skills to start exploring the library on their own and apply it to their own projects and applications.
-The tutorials are designed to be beginner-friendly and aim to provide a comprehensive introduction to using the 🧨 Diffusers library.</t>
+The tutorials are designed to be beginner-friendly and provide a foundation for users to get started with the Diffusers library.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2303,17 +2288,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main purpose of tokenizers in the NLP pipeline is to translate text into numerical data that can be processed by the model. Specifically:
+          <t>Based on the context provided, the main purpose of tokenizers in the NLP pipeline is to translate text into data that can be processed by the model. Specifically:
 1. Tokenizers convert raw text inputs into numerical data that models can process, since models can only work with numbers.
-2. They serve as a core component to bridge the gap between human-readable text and the numerical representations needed by machine learning models.
-3. The goal is to find the most meaningful and smallest representation of the text that makes sense to the model.
-4. Tokenizers handle tasks like:
-   - Splitting text into smaller units (tokens) like words, subwords, or characters
-   - Converting tokens to numerical IDs using a vocabulary  
-   - Adding special tokens as needed by the model
-   - Generating attention masks and other model-specific inputs
-5. They are a crucial first step in preparing text data for input into neural network models like transformers.
-In essence, tokenizers act as the interface between raw text and the numerical inputs required by NLP models, enabling the models to process and analyze human language.</t>
+2. They aim to find the most meaningful and smallest representation of the text that makes sense to the model.
+3. Tokenizers serve as a core component that bridges the gap between human-readable text and the numerical inputs required by NLP models.
+4. The tokenization process typically involves:
+   - Splitting text into smaller chunks called tokens (e.g. words, subwords, characters)
+   - Adding any special tokens required by the model
+   - Converting the tokens to numerical IDs using a vocabulary
+5. Tokenizers enable models to process and understand text inputs by converting them into a format suitable for mathematical operations and analysis.
+In summary, tokenizers play the crucial role of transforming raw text into structured numerical data that NLP models can effectively process and learn from.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2346,10 +2330,10 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Based on the context provided, for fp16 data type on an A100 GPU, the recommended batch size multiple is 64.
+          <t>Based on the context provided, for fp16 data type on an A100 GPU, the recommended multiple for batch size is 64.
 Specifically, the context states:
 "For instance, for fp16 data type a multiple of 8 is recommended, unless it's an A100 GPU, in which case use multiples of 64."
-So for an A100 GPU using fp16, the recommendation is to use batch sizes that are multiples of 64.</t>
+So for an A100 GPU using fp16, the batch size should be a multiple of 64 for optimal performance.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2416,12 +2400,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Based on the context provided, the Nyströmformer approximates self-attention with O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
+          <t>According to the context, the Nyströmformer approximates standard self-attention with O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
 1. The introduction states: "The Nyströmformer is one of many efficient Transformer models that approximates standard self-attention with O(n) complexity."
-2. This is in contrast to standard self-attention, which has "a time and memory complexity of O(n^2) (where n is the length of the input sequence)".
-3. The Nyströmformer achieves this linear complexity by using the Nyström method to approximate the softmax matrix in self-attention, without ever calculating the full QK^T product which would require O(n^2) operations.
-4. It does this by sampling a smaller number of "landmarks" m from the queries and keys, where m &lt;&lt; n, allowing the approximation to be computed in linear time and memory.
-So in summary, the Nyströmformer reduces the quadratic O(n^2) complexity of standard self-attention to linear O(n) complexity in both time and memory usage.</t>
+2. It mentions that standard self-attention has O(n^2) complexity, but the Nyströmformer improves this to linear O(n) complexity.
+3. The context notes: "Note that we never calculated the product QK^T, avoiding the O(n^2) complexity."
+So in summary, the Nyströmformer achieves linear O(n) time and memory complexity in its approximation of self-attention, improving upon the quadratic O(n^2) complexity of standard self-attention.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2456,7 +2439,8 @@
         <is>
           <t>The title of the paper introducing the ByT5 model is:
 "ByT5: Towards a token-free future with pre-trained byte-to-byte models"
-This is stated in the overview section of the context provided.</t>
+This is stated in the overview section of the context, which says:
+"The ByT5 model was presented in [ByT5: Towards a token-free future with pre-trained byte-to-byte models] by Linting Xue, Aditya Barua, Noah Constant, Rami Al-Rfou, Sharan Narang, Mihir Kale, Adam Roberts, Colin Raffel."</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2489,7 +2473,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the documentation states:
+          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the passage states:
 "[`MarkupLMFeatureExtractor`] uses [Beautiful Soup](https://www.crummy.com/software/BeautifulSoup/bs4/doc/), a Python library for pulling data out of HTML and XML files, under the hood."</t>
         </is>
       </c>
@@ -2560,8 +2544,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Based on the context provided, the method used to load a checkpoint for a task using AutoPipeline is:
-`from_pretrained()`
+          <t>Based on the context provided, the method used to load a checkpoint for a task using `AutoPipeline` is `from_pretrained()`.
 Specifically, the documentation states:
 "Based on the task, the `AutoPipeline` class automatically retrieves the relevant pipeline given the name or path to the pretrained weights with the `from_pretrained()` method."
 So to load a checkpoint for a specific task using AutoPipeline, you would use the `from_pretrained()` method, passing in the name or path to the pretrained weights.</t>
@@ -2597,13 +2580,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>To ensure that elements in a row have the same height in Gradio, you can use the `equal_height` parameter when creating a `gr.Row()`.
-Specifically, you would set `equal_height=True` like this:
+          <t>Based on the context provided, to ensure that elements in a row have the same height in Gradio, you can use the `equal_height` parameter of the `style` method on a `gr.Row()`.
+Specifically, the relevant part states:
+"To make each element in a row have the same height, use the `equal_height` parameter of the `style` method."
+An example is given:
 ```python
-with gr.Row(equal_height=True):
-    # Components in this row will have equal height
+with gr.Blocks() as demo:
+    with gr.Row(equal_height=True):
+        textbox = gr.Textbox()
+        btn2 = gr.Button("Button2")
 ```
-This parameter makes all the elements within that row have the same height, which can be useful for creating a more uniform layout.</t>
+So the `equal_height=True` parameter passed to `gr.Row()` is what ensures the elements within that row will have the same height.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2671,10 +2658,10 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>According to the information provided, the WordPiece Model uses the special identifier "##" for continuing subwords.
-Specifically, the documentation states:
-"WordPiece : This is a subword tokenization algorithm quite similar to BPE, used mainly by Google in models like BERT. It uses a greedy algorithm, that tries to build long words first, splitting in multiple tokens when entire words don't exist in the vocabulary. This is different from BPE that starts from characters, building bigger tokens as possible. It uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word)."
-So the "##" prefix is used by WordPiece to indicate tokens that are continuations of words, rather than the start of new words.</t>
+          <t>According to the information provided in the context, the WordPiece Model uses the special identifier `##` for continuing subwords.
+Specifically, the context states:
+"WordPiece | Reverts the WordPiece Model. This model uses a special identifier `##` for continuing subwords, and so this Decoder helps with decoding these."
+So the WordPiece tokenization algorithm uses `##` as a prefix to indicate subword tokens that are continuations of words.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2707,9 +2694,9 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Based on the context provided, the correct answer is that the `roberta-large-mnli` checkpoint performs text classification. 
-Specifically, the explanation states that it "classifies if two sentences are logically linked across three labels (contradiction, neutral, entailment) — a task also called natural language inference."
-So the `roberta-large-mnli` model is trained for natural language inference, which is a type of text classification task. It takes two sentences as input and classifies their logical relationship into one of three categories: contradiction, neutral, or entailment.</t>
+          <t>Based on the context provided, the correct answer is:
+Text classification
+More specifically, the roberta-large-mnli model performs natural language inference, which is a type of text classification task. It classifies if two sentences are logically linked across three labels (contradiction, neutral, entailment).</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2745,8 +2732,8 @@
           <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically:
 - FNet replaces the self-attention sublayer in a Transformer encoder with a standard, unparameterized Fourier Transform.
 - It returns only the real parts of the Fourier transform.
-- This replacement allows FNet to achieve 92-97% of the accuracy of BERT counterparts on the GLUE benchmark, while training 80% faster on GPUs and 70% faster on TPUs at standard 512 input lengths.
-So in summary, FNet uses a Fourier transform to replace the self-attention mechanism in BERT, allowing for faster training while maintaining most of the accuracy.</t>
+- This Fourier transform "mixes" the input tokens, along with nonlinearities in feed-forward layers, to model semantic relationships.
+The use of the Fourier transform instead of self-attention allows FNet to be significantly faster and more memory efficient than BERT, while still achieving 92-97% of BERT's accuracy on the GLUE benchmark.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2779,10 +2766,10 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the beginning of multiple code snippets, which state:
+          <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the beginning of several sections, which state:
 "Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
 http://www.apache.org/licenses/LICENSE-2.0"
-The Apache License 2.0 is an open source software license that allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
+The Apache License 2.0 is an open source license that allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2816,7 +2803,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t>According to the context provided, Hugging Face is SOC2 Type 2 certified. Specifically, the passage states:
-"Hugging Face is also SOC2 Type 2 certified, meaning we provide security certification to our customers and actively monitor and patch any security weaknesses."</t>
+"Hugging Face is also [SOC2 Type 2 certified](https://us.aicpa.org/interestareas/frc/assuranceadvisoryservices/aicpasoc2report.html), meaning we provide security certification to our customers and actively monitor and patch any security weaknesses."</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2851,13 +2838,8 @@
         <is>
           <t>According to the test strategy document, the typical type of test that should accompany a bug fix in Gradio is a dynamic code test. Specifically, the document states:
 "Every bug fix should be accompanied by a test that failed before the fix and passes afterwards. This test should _typically_ be a dynamic code test but it could be a linting rule or new type if that is appropriate."
-The document emphasizes that dynamic code tests (like unit or integration tests) should usually be added when fixing bugs, as these provide a good balance of confidence and ease of writing/running. However, it does allow for exceptions where a static analysis check like a linting rule or type check may be more appropriate in some cases.
-The key points are:
-1. A test should be added for every bug fix
-2. The test should fail before the fix and pass after
-3. It should typically be a dynamic code test (e.g. unit test)
-4. Other test types can be used if more appropriate for the specific bug
-This aligns with the objectives of preventing regressions and enabling quick identification of defects.</t>
+The document explains that dynamic code tests are usually unit or integration tests that test isolated pieces of code or relationships between parts of the codebase. These align closely with the objectives of identifying defects and preventing regressions.
+So in most cases, a bug fix should be accompanied by a new unit or integration test that demonstrates the bug is fixed. However, the document does note there can be exceptions, and in some cases a linting rule or type check could be appropriate instead. But dynamic code tests (unit/integration) are presented as the typical and preferred approach for testing bug fixes.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2926,13 +2908,13 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>According to the context provided, you can access the logs of your Endpoints in Hugging Face Endpoints through the UI in the "Logs" tab of your Endpoint.
-Specifically, the context states:
-"Hugging Face Endpoints provides access to the logs of your Endpoints through the UI in the 'Logs' tab of your Endpoint."
-The logs available include:
-1. Build logs of your Image artifacts
-2. Container Logs during inference (only available when your Endpoint is in the "Running" state)
-The context also notes that if your Endpoint creation fails, you can check the Build Logs to see the reason for the failure.</t>
+          <t>According to the context provided, you can access the logs of your Endpoints in Hugging Face Endpoints through the UI in the "Logs" tab of your Endpoint. Specifically:
+1. The "Logs" tab provides access to:
+   - Build logs of your Image artifacts
+   - Container Logs during inference
+2. Container Logs are only available when your Endpoint is in the "Running" state.
+3. If your Endpoint creation is in the "Failed" state, you can check the Build Logs to see the reason for the failure (e.g. wrong version of a dependency).
+The context also includes images showing examples of the Build Logs and Container Logs interfaces in the Hugging Face Endpoints UI.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
